--- a/biology/Botanique/Daniel_Lacombe_(rose)/Daniel_Lacombe_(rose).xlsx
+++ b/biology/Botanique/Daniel_Lacombe_(rose)/Daniel_Lacombe_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Daniel Lacombe' est un cultivar de rosier obtenu de semis par Gaston Allard, vice-président de la Société d'horticulture, à Angers, par le croisement du rosier polyantha alba plena sarmentosa et du Noisette 'Margaritta' et mis au commerce en novembre 1885 par Moreau-Robert d'Angers[1]. Il est dédié à Daniel Lacombe, avocat à Nantes, beau-père de M. Allard.
+'Daniel Lacombe' est un cultivar de rosier obtenu de semis par Gaston Allard, vice-président de la Société d'horticulture, à Angers, par le croisement du rosier polyantha alba plena sarmentosa et du Noisette 'Margaritta' et mis au commerce en novembre 1885 par Moreau-Robert d'Angers. Il est dédié à Daniel Lacombe, avocat à Nantes, beau-père de M. Allard.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier sarmenteux très vigoureux, à bois lisse, donnant des rameaux atteignant jusqu'à 400 cm de hauteur. Ses fleurs moyennes et presque pleines (17-25 pétales[1]) sont de couleur chamois légèrement nuancées de rose et palissant jusqu'au blanc au fur et à mesure. La floraison est abondante en juin et quelques fleurs peuvent apparaître à l'automne. Sa zone de rusticité est de 6b à 9b. Il est donc résistant aux hivers froids.
-Cette variété est idéale pour garnir les tonnelles, guirlandes, palissades, etc., où il produit le meilleur effet[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier sarmenteux très vigoureux, à bois lisse, donnant des rameaux atteignant jusqu'à 400 cm de hauteur. Ses fleurs moyennes et presque pleines (17-25 pétales) sont de couleur chamois légèrement nuancées de rose et palissant jusqu'au blanc au fur et à mesure. La floraison est abondante en juin et quelques fleurs peuvent apparaître à l'automne. Sa zone de rusticité est de 6b à 9b. Il est donc résistant aux hivers froids.
+Cette variété est idéale pour garnir les tonnelles, guirlandes, palissades, etc., où il produit le meilleur effet.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par croisement avec 'Crimson Rambler' (Turner, 1893), il a donné naissance à 'Leuchtstern' (Kiese &amp; Schmidt, 1899), et par croisement avec 'Weißer Herumstreicher', il a donné naissance à 'Tausendschön' (Kiese &amp; Schmidt, 1906).
 </t>
